--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/被保険者住所変更届.xlsx
@@ -6142,8 +6142,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CJ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:AG34"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33:AG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/out/production/resources/report/被保険者住所変更届.xlsx
@@ -6143,7 +6143,7 @@
   <dimension ref="B1:CJ76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33:AG33"/>
+      <selection activeCell="P35" sqref="P35:AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
